--- a/results/mod1.edu.f.eff.COMB_comp.xlsx
+++ b/results/mod1.edu.f.eff.COMB_comp.xlsx
@@ -434,25 +434,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00327880516644568</v>
+        <v>0.00327821814778965</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00607087346810832</v>
+        <v>0.00607052558773051</v>
       </c>
       <c r="E2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.00861988818574641</v>
+        <v>-0.008619793371391</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0151774985186378</v>
+        <v>0.0151762296669703</v>
       </c>
       <c r="H2" t="n">
-        <v>0.540087877579723</v>
+        <v>0.540022128300627</v>
       </c>
       <c r="I2" t="n">
-        <v>0.589136430326566</v>
+        <v>0.589181772049778</v>
       </c>
     </row>
     <row r="3">
@@ -463,25 +463,25 @@
         <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00113079891057952</v>
+        <v>0.00113308569357548</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0087716015867132</v>
+        <v>0.00877130177021274</v>
       </c>
       <c r="E3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0160612242861127</v>
+        <v>-0.0160583498735739</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0183228221072718</v>
+        <v>0.0183245212607249</v>
       </c>
       <c r="H3" t="n">
-        <v>0.128915899724903</v>
+        <v>0.129181018195432</v>
       </c>
       <c r="I3" t="n">
-        <v>0.897424195492535</v>
+        <v>0.897214415636392</v>
       </c>
     </row>
     <row r="4">
@@ -492,25 +492,25 @@
         <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.00327230888358214</v>
+        <v>-0.00327176782185371</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00606943178853013</v>
+        <v>0.00606939063229377</v>
       </c>
       <c r="E4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0151681765957237</v>
+        <v>-0.0151675548692543</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00862355882855943</v>
+        <v>0.00862401922554686</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.539145837303267</v>
+        <v>-0.53906034725223</v>
       </c>
       <c r="I4" t="n">
-        <v>0.589786229580256</v>
+        <v>0.58984521513518</v>
       </c>
     </row>
     <row r="5">
@@ -521,25 +521,25 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.00419833635532136</v>
+        <v>-0.00419846598465544</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00560003580723136</v>
+        <v>0.00559999299422953</v>
       </c>
       <c r="E5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0151742048496295</v>
+        <v>-0.0151742505670219</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00677753213898679</v>
+        <v>0.00677731859771105</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.749698126911979</v>
+        <v>-0.749727006619779</v>
       </c>
       <c r="I5" t="n">
-        <v>0.453436535907049</v>
+        <v>0.45341913863566</v>
       </c>
     </row>
     <row r="6">
@@ -550,25 +550,25 @@
         <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00367322998820277</v>
+        <v>0.00367253007367639</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00607957982165577</v>
+        <v>0.00607950252687033</v>
       </c>
       <c r="E6" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.00824252750337899</v>
+        <v>-0.00824307592290971</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0155889874797845</v>
+        <v>0.0155881360702625</v>
       </c>
       <c r="H6" t="n">
-        <v>0.604191423742564</v>
+        <v>0.604083978490749</v>
       </c>
       <c r="I6" t="n">
-        <v>0.545716382157284</v>
+        <v>0.545787810796507</v>
       </c>
     </row>
     <row r="7">
@@ -579,25 +579,25 @@
         <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.00484616884097105</v>
+        <v>-0.00484681297577418</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00631196256553869</v>
+        <v>0.00631190188220312</v>
       </c>
       <c r="E7" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0172173881411919</v>
+        <v>-0.0172179133388429</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00752505045924982</v>
+        <v>0.00752428738729451</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.767775282355062</v>
+        <v>-0.767884714659481</v>
       </c>
       <c r="I7" t="n">
-        <v>0.442620701737382</v>
+        <v>0.442555679239749</v>
       </c>
     </row>
     <row r="8">
@@ -608,25 +608,25 @@
         <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00423398001464649</v>
+        <v>0.00423321286724191</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00645152300927788</v>
+        <v>0.00645152355068059</v>
       </c>
       <c r="E8" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.00841077272896962</v>
+        <v>-0.00841154093750401</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0168787327582626</v>
+        <v>0.0168779666719878</v>
       </c>
       <c r="H8" t="n">
-        <v>0.656276046533143</v>
+        <v>0.656157081964823</v>
       </c>
       <c r="I8" t="n">
-        <v>0.511646526757178</v>
+        <v>0.511723059928659</v>
       </c>
     </row>
     <row r="9">
@@ -637,25 +637,25 @@
         <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0515333558269548</v>
+        <v>0.0515335626026077</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00834108455154705</v>
+        <v>0.00833862812814985</v>
       </c>
       <c r="E9" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0351851305139191</v>
+        <v>0.0351901517909613</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0678815811399904</v>
+        <v>0.067876973414254</v>
       </c>
       <c r="H9" t="n">
-        <v>6.17825601796552</v>
+        <v>6.1801008284131</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00000000064813552514857</v>
+        <v>0.000000000640606742981695</v>
       </c>
     </row>
     <row r="10">
@@ -666,25 +666,25 @@
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0622902974093659</v>
+        <v>-0.0622907006723666</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00821334733932109</v>
+        <v>0.00820932094888559</v>
       </c>
       <c r="E10" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0783881623869531</v>
+        <v>-0.0783806740697126</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0461924324317787</v>
+        <v>-0.0462007272750207</v>
       </c>
       <c r="H10" t="n">
-        <v>-7.58403301795767</v>
+        <v>-7.58780184868062</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0000000000000334975854470591</v>
+        <v>0.000000000000032537798186969</v>
       </c>
     </row>
     <row r="11">
@@ -695,25 +695,25 @@
         <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0186659331695868</v>
+        <v>-0.0186663690225739</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00572871414632136</v>
+        <v>0.00572826659822675</v>
       </c>
       <c r="E11" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0298940065741017</v>
+        <v>-0.0298935652489421</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.00743785976507177</v>
+        <v>-0.00743917279620572</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.25831114851016</v>
+        <v>-3.25864180768966</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00112077446191651</v>
+        <v>0.00111946912342486</v>
       </c>
     </row>
     <row r="12">
@@ -724,25 +724,25 @@
         <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.00264533156007349</v>
+        <v>-0.00264486237184091</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00502919531383173</v>
+        <v>0.00502913593202557</v>
       </c>
       <c r="E12" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0125023732464013</v>
+        <v>-0.0125017876719673</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00721171012625431</v>
+        <v>0.00721206292828549</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.525994994228613</v>
+        <v>-0.525907910939215</v>
       </c>
       <c r="I12" t="n">
-        <v>0.598891684995025</v>
+        <v>0.598952192123975</v>
       </c>
     </row>
     <row r="13">
@@ -753,25 +753,25 @@
         <v>14</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.00661831183072304</v>
+        <v>-0.00661825144538233</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00643334264151091</v>
+        <v>0.00643320461337597</v>
       </c>
       <c r="E13" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0192274317082902</v>
+        <v>-0.0192271007927762</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00599080804684412</v>
+        <v>0.0059905979020115</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.02875164584249</v>
+        <v>-1.02876433179532</v>
       </c>
       <c r="I13" t="n">
-        <v>0.303596394140223</v>
+        <v>0.303590431386237</v>
       </c>
     </row>
     <row r="14">
@@ -782,25 +782,25 @@
         <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0215025117758937</v>
+        <v>0.0215028325425766</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00655933464415057</v>
+        <v>0.0065587444256756</v>
       </c>
       <c r="E14" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00864645211081273</v>
+        <v>0.00864792968444955</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0343585714409747</v>
+        <v>0.0343577354007036</v>
       </c>
       <c r="H14" t="n">
-        <v>3.27815440779028</v>
+        <v>3.2784983141589</v>
       </c>
       <c r="I14" t="n">
-        <v>0.00104488222679688</v>
+        <v>0.00104360987592831</v>
       </c>
     </row>
     <row r="15">
@@ -811,25 +811,25 @@
         <v>16</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0171840063669007</v>
+        <v>0.0171837883669795</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00767751588179785</v>
+        <v>0.00767712782352562</v>
       </c>
       <c r="E15" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00213635174784267</v>
+        <v>0.00213689432815894</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0322316609859588</v>
+        <v>0.0322306824058001</v>
       </c>
       <c r="H15" t="n">
-        <v>2.23822478930213</v>
+        <v>2.23830952955113</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0252063998763265</v>
+        <v>0.0252008771071677</v>
       </c>
     </row>
   </sheetData>
